--- a/condition_counts1.xlsx
+++ b/condition_counts1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmaine-my.sharepoint.com/personal/ines_escobedo_maine_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesescobedo/projects/fall23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E51F369-2D14-4F13-9562-FD413D0BE022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A2A0C-976A-EC49-A317-B93056116A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F947D79-037B-446E-B9C8-E3323002CC24}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{0F947D79-037B-446E-B9C8-E3323002CC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t xml:space="preserve">DUTCH                                                                                                                                                                                                                                                          </t>
   </si>
   <si>
-    <t xml:space="preserve">ENGLISH                                                                                                                                                                                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">FARSI                                                                                                                                                                                                                                                          </t>
   </si>
   <si>
@@ -327,13 +324,16 @@
   </si>
   <si>
     <t xml:space="preserve">ZANDE                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,13 +680,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA69C8B-3145-4A15-8A2C-9563B9232545}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -836,7 +836,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -886,7 +886,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -936,7 +936,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>20181</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1686,9 +1686,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>35808551</v>
@@ -1736,9 +1736,9 @@
         <v>6157601</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>12735</v>
@@ -1786,9 +1786,9 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>2515</v>
@@ -1836,9 +1836,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>915</v>
@@ -1886,9 +1886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>304161</v>
@@ -1936,9 +1936,9 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>101</v>
@@ -1986,9 +1986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>1339</v>
@@ -2036,9 +2036,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>1883</v>
@@ -2086,9 +2086,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -2136,9 +2136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>5393</v>
@@ -2186,9 +2186,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>3978</v>
@@ -2236,9 +2236,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>59</v>
@@ -2286,9 +2286,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2336,9 +2336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>3767</v>
@@ -2386,9 +2386,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>475</v>
@@ -2436,9 +2436,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>353</v>
@@ -2486,9 +2486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>1759</v>
@@ -2536,9 +2536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>29032</v>
@@ -2586,9 +2586,9 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>458</v>
@@ -2636,9 +2636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>240</v>
@@ -2686,9 +2686,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>2984</v>
@@ -2736,9 +2736,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>1025</v>
@@ -2786,9 +2786,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>287</v>
@@ -2836,9 +2836,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>404</v>
@@ -2886,9 +2886,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>214</v>
@@ -2936,9 +2936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>142</v>
@@ -2986,9 +2986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>95</v>
@@ -3036,9 +3036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -3086,9 +3086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>142</v>
@@ -3136,9 +3136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>734</v>
@@ -3186,9 +3186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3236,9 +3236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>273</v>
@@ -3286,9 +3286,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>3474</v>
@@ -3336,9 +3336,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>15</v>
@@ -3386,9 +3386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>6227</v>
@@ -3436,9 +3436,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>1219</v>
@@ -3486,9 +3486,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -3536,9 +3536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>1395</v>
@@ -3586,9 +3586,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>3024</v>
@@ -3636,9 +3636,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>102803</v>
@@ -3686,9 +3686,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>1357</v>
@@ -3736,9 +3736,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>22087</v>
@@ -3786,9 +3786,9 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>4106</v>
@@ -3836,9 +3836,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>19688</v>
@@ -3886,9 +3886,9 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3936,9 +3936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>120787</v>
@@ -3986,9 +3986,9 @@
         <v>6478</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>27359</v>
@@ -4036,9 +4036,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>123</v>
@@ -4086,9 +4086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>46</v>
@@ -4136,9 +4136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>5121</v>
@@ -4186,9 +4186,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>336</v>
@@ -4236,9 +4236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>160</v>
@@ -4286,9 +4286,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>199</v>
@@ -4336,9 +4336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>3696</v>
@@ -4386,9 +4386,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>1455</v>
@@ -4436,9 +4436,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>2570</v>
@@ -4486,9 +4486,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>434418</v>
@@ -4536,9 +4536,9 @@
         <v>10038</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>2933</v>
@@ -4586,9 +4586,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>58220</v>
@@ -4636,9 +4636,9 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>398</v>
@@ -4686,9 +4686,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>82</v>
@@ -4736,9 +4736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>3043</v>
@@ -4793,21 +4793,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001386EB677B57AC4381871C2032397AB5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d07ae09b9bf50451c7ff9c8611fb226e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc7d4d801b205454b7e7698f628f696f">
     <xsd:element name="properties">
@@ -4921,14 +4906,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6441550F-BF2A-4055-A10B-67929C918E75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4689E827-F0DE-4AA6-A837-A1AF3573275F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5E7169B-2E52-42C4-B561-500AAFD9F4BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5E7169B-2E52-42C4-B561-500AAFD9F4BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4689E827-F0DE-4AA6-A837-A1AF3573275F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6441550F-BF2A-4055-A10B-67929C918E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/condition_counts1.xlsx
+++ b/condition_counts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesescobedo/projects/fall23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A2A0C-976A-EC49-A317-B93056116A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18869FCC-9719-8F41-B541-B71FA8EF8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{0F947D79-037B-446E-B9C8-E3323002CC24}"/>
   </bookViews>
@@ -44,30 +44,6 @@
     <t>PRIMARYLANGUAGE_COUNT</t>
   </si>
   <si>
-    <t>ALCOHOLUSEDISORDER_COUNT</t>
-  </si>
-  <si>
-    <t>AUTISM_COUNT</t>
-  </si>
-  <si>
-    <t>CEREBRALPALSY_COUNT</t>
-  </si>
-  <si>
-    <t>DIABETES_COUNT</t>
-  </si>
-  <si>
-    <t>DRUGUSEDISORDER_COUNT</t>
-  </si>
-  <si>
-    <t>INTELLECTUALDISABILITIES_COUNT</t>
-  </si>
-  <si>
-    <t>LEARNINGDISABILITIES_COUNT</t>
-  </si>
-  <si>
-    <t>OTHERDEVELOPMENTDELAYS_COUNT</t>
-  </si>
-  <si>
     <t>OUD_COUNT</t>
   </si>
   <si>
@@ -327,6 +303,30 @@
   </si>
   <si>
     <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>Alcohol Use Disorder</t>
+  </si>
+  <si>
+    <t>Autism</t>
+  </si>
+  <si>
+    <t>Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Drug Use Disorder</t>
+  </si>
+  <si>
+    <t>Intellectual Disabilities</t>
+  </si>
+  <si>
+    <t>Learning Disabilities</t>
+  </si>
+  <si>
+    <t>Other Development Delays</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA69C8B-3145-4A15-8A2C-9563B9232545}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,51 +694,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>14490</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>343284</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3823</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>6814</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>27</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>233568</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4644</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>289</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>469</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2235</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>420</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>254</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>53616</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>196</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>227</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>8476</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>3268</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2468</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <v>35808551</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>12735</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>2515</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>915</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>304161</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>101</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>1339</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1883</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>5393</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>3978</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>59</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>3767</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>475</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>353</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1759</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>29032</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>458</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>240</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>2984</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>1025</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>287</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>404</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>214</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>142</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>95</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>142</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>734</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>273</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>3474</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>15</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>6227</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>1219</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>1395</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>3024</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>102803</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1357</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>22087</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>4106</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>19688</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>120787</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>27359</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>123</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>46</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>5121</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>336</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>160</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>199</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>3696</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>1455</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>2570</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>434418</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>2933</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>58220</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>398</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>82</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>3043</v>

--- a/condition_counts1.xlsx
+++ b/condition_counts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesescobedo/projects/fall23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18869FCC-9719-8F41-B541-B71FA8EF8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBFF21C-BB10-714A-8C92-6C53AA72E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{0F947D79-037B-446E-B9C8-E3323002CC24}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t xml:space="preserve">ACHOLI                                                                                                                                                                                                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFSOMALI                                                                                                                                                                                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">ALBANIAN                                                                                                                                                                                                                                                       </t>
   </si>
   <si>
@@ -327,6 +321,12 @@
   </si>
   <si>
     <t>Other Development Delays</t>
+  </si>
+  <si>
+    <t>ACHOLI</t>
+  </si>
+  <si>
+    <t>AFSOMALI</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA69C8B-3145-4A15-8A2C-9563B9232545}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,28 +694,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>14490</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>343284</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3823</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>6814</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>27</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>233568</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4644</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>289</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>469</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2235</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>420</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>254</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>53616</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>196</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>227</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>8476</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>3268</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>2468</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>35808551</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>12735</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>2515</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>915</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>304161</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>101</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>1339</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>1883</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>5393</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>3978</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>59</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>3767</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>475</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>353</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>1759</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>29032</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>458</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>240</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>2984</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>1025</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>287</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>404</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>214</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>142</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>95</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>142</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>734</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>273</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>3474</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>15</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>6227</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>1219</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>1395</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>3024</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>102803</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>1357</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>22087</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>4106</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>19688</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>120787</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>27359</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>123</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>46</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>5121</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>336</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>160</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>199</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>3696</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>1455</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>2570</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>434418</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>2933</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>58220</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>398</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>82</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>3043</v>
